--- a/TMS.xlsx
+++ b/TMS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8840" windowHeight="2830"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="8840" windowHeight="2830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Milestones</t>
   </si>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,6 +512,9 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -534,6 +537,9 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -557,35 +563,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>

--- a/TMS.xlsx
+++ b/TMS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="8840" windowHeight="2830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8840" windowHeight="2830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Milestones</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>paypal-done</t>
+  </si>
+  <si>
+    <t>mpesa</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,70 +554,78 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" t="s">
+    <row r="19" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
         <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TMS.xlsx
+++ b/TMS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Milestones</t>
   </si>
@@ -116,7 +116,7 @@
     <t>paypal-done</t>
   </si>
   <si>
-    <t>mpesa</t>
+    <t>mpesa-done</t>
   </si>
 </sst>
 </file>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,6 +613,9 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
